--- a/packages/travelr-be/spec/spec.xlsx
+++ b/packages/travelr-be/spec/spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr-be\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150FA98-2118-483B-BC57-E394F2C7184F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3132B996-788F-4867-85FB-EBCD182A7A2F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12120" activeTab="6" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12120" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="4" r:id="rId1"/>
@@ -2666,9 +2666,9 @@
   </sheetPr>
   <dimension ref="A1:BA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5"/>
@@ -3165,13 +3165,13 @@
       <c r="M8" s="70"/>
       <c r="N8" s="72"/>
       <c r="O8" s="70"/>
-      <c r="P8" s="70">
-        <v>2</v>
-      </c>
+      <c r="P8" s="70"/>
       <c r="Q8" s="70">
         <v>2</v>
       </c>
-      <c r="R8" s="70"/>
+      <c r="R8" s="70">
+        <v>2</v>
+      </c>
       <c r="S8" s="70"/>
       <c r="T8" s="71"/>
       <c r="U8" s="70"/>
@@ -3230,10 +3230,10 @@
       <c r="O9" s="70"/>
       <c r="P9" s="70"/>
       <c r="Q9" s="70"/>
-      <c r="R9" s="70">
+      <c r="R9" s="70"/>
+      <c r="S9" s="70">
         <v>2</v>
       </c>
-      <c r="S9" s="70"/>
       <c r="T9" s="71"/>
       <c r="U9" s="70"/>
       <c r="V9" s="70"/>
@@ -3292,10 +3292,10 @@
       <c r="P10" s="70"/>
       <c r="Q10" s="70"/>
       <c r="R10" s="70"/>
-      <c r="S10" s="70">
+      <c r="S10" s="70"/>
+      <c r="T10" s="71">
         <v>2</v>
       </c>
-      <c r="T10" s="71"/>
       <c r="U10" s="70"/>
       <c r="V10" s="70"/>
       <c r="W10" s="70"/>
@@ -3354,10 +3354,10 @@
       <c r="Q11" s="70"/>
       <c r="R11" s="70"/>
       <c r="S11" s="70"/>
-      <c r="T11" s="71">
+      <c r="T11" s="71"/>
+      <c r="U11" s="70">
         <v>2</v>
       </c>
-      <c r="U11" s="70"/>
       <c r="V11" s="70"/>
       <c r="W11" s="70"/>
       <c r="X11" s="72"/>
@@ -3416,9 +3416,7 @@
       <c r="R12" s="70"/>
       <c r="S12" s="70"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="70">
-        <v>2</v>
-      </c>
+      <c r="U12" s="70"/>
       <c r="V12" s="70">
         <v>2</v>
       </c>
@@ -3431,7 +3429,9 @@
       <c r="Y12" s="71">
         <v>2</v>
       </c>
-      <c r="Z12" s="70"/>
+      <c r="Z12" s="70">
+        <v>2</v>
+      </c>
       <c r="AA12" s="70"/>
       <c r="AB12" s="70"/>
       <c r="AC12" s="72"/>
@@ -3482,7 +3482,9 @@
       <c r="M13" s="70"/>
       <c r="N13" s="72"/>
       <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
+      <c r="P13" s="70">
+        <v>1</v>
+      </c>
       <c r="Q13" s="70"/>
       <c r="R13" s="70"/>
       <c r="S13" s="70"/>
@@ -3492,9 +3494,7 @@
       <c r="W13" s="70"/>
       <c r="X13" s="72"/>
       <c r="Y13" s="71"/>
-      <c r="Z13" s="70">
-        <v>2</v>
-      </c>
+      <c r="Z13" s="70"/>
       <c r="AA13" s="70">
         <v>2</v>
       </c>
@@ -59140,8 +59140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAA3784-10F0-480C-94D0-1BE0F4760483}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
@@ -59240,7 +59240,7 @@
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
     </row>
-    <row r="5" spans="1:9" s="54" customFormat="1" ht="75">
+    <row r="5" spans="1:9" s="54" customFormat="1" ht="45">
       <c r="A5" s="51" t="s">
         <v>166</v>
       </c>
@@ -59684,5 +59684,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/packages/travelr-be/spec/spec.xlsx
+++ b/packages/travelr-be/spec/spec.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr-be\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8AEBC7-F20E-42ED-B299-11E608BF7D80}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959ABE95-2C2B-4617-A496-100E698D6361}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12120" activeTab="6" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12120" activeTab="5" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="4" r:id="rId1"/>
     <sheet name="DB" sheetId="1" r:id="rId2"/>
     <sheet name="API" sheetId="2" r:id="rId3"/>
     <sheet name="API_middleware" sheetId="5" r:id="rId4"/>
-    <sheet name="ENV" sheetId="3" r:id="rId5"/>
-    <sheet name="model" sheetId="10" r:id="rId6"/>
-    <sheet name="Pages and Components" sheetId="6" r:id="rId7"/>
-    <sheet name="redux states" sheetId="8" r:id="rId8"/>
-    <sheet name="redux actions" sheetId="9" r:id="rId9"/>
+    <sheet name="model" sheetId="10" r:id="rId5"/>
+    <sheet name="Pages and Components" sheetId="6" r:id="rId6"/>
+    <sheet name="redux states" sheetId="8" r:id="rId7"/>
+    <sheet name="redux actions" sheetId="9" r:id="rId8"/>
+    <sheet name="ENV" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">API!$A$1:$L$17</definedName>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="377">
   <si>
     <t>order</t>
     <phoneticPr fontId="1"/>
@@ -432,10 +432,6 @@
   </si>
   <si>
     <t>/posts/{posts.id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/posts/{posts.id}/toggle_like</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -995,10 +991,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PageAuth</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Menu</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1094,29 +1086,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・「認証」へのリンク
-・「閲覧（全部）」へのリンク
-・「投稿」へのリンク
-・「アカウント管理」へのリンク
-・「投稿管理（全部）」へのリンク</t>
-    <rPh sb="14" eb="16">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ゼンブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザは、各画面へ遷移することができる
 （左スライドメニューとする。PCでは常に表示）</t>
     <rPh sb="5" eb="6">
@@ -1140,53 +1109,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PostsListItem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>単一のポストをリスト表示に適した形で表示する。
-表示項目を設定できる。</t>
-    <rPh sb="0" eb="2">
-      <t>タンイツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>deleteComment</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>editComment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Like</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいねの総数を確認する
-いいねを行う、またはやめる</t>
-    <rPh sb="4" eb="6">
-      <t>ソウスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1207,21 +1134,6 @@
   </si>
   <si>
     <t>*FilterCriterion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>postId
-userId
-oldImageUrl
-newImageUrl
-description
-shootDate
-lng
-lat
-viewCount
-displayName
-likedCount
-commentsCount</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1403,44 +1315,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PageViewPostsList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PageViewPostsMap</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Filter</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>displays
 (*はmodelタブを参照)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・いいね総数
-・いいねボタン</t>
-    <rPh sb="4" eb="6">
-      <t>ソウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・コメント総数
-・コメント一覧</t>
-    <rPh sb="5" eb="7">
-      <t>ソウスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comments
-Like</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1493,20 +1373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・*Post
-・チェックボックス（表示有無を選択できる）</t>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ウム</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>comment</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1534,10 +1400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すべて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・*User
 ・displayNameの変更ボタン
 ・各プロバイダとの紐付けボタン</t>
@@ -1558,16 +1420,6 @@
   </si>
   <si>
     <t>deletePosts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reduxとバインドし、すべてのRedux StateとRedux Actionを子コンポーネントへ渡す</t>
-    <rPh sb="41" eb="42">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ワタ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1606,25 +1458,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DELETE /posts
-GET /posts/自ユーザID
-redux state(posts.mine)の更新</t>
-    <rPh sb="25" eb="26">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>currentPost</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*Post</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*Post
-- [*Comment]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1644,57 +1478,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DELETE /posts/comments/{comments.id}
-GET /posts/{posts.id}
-redux state(posts.currentPost)の更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PUT /posts/comments/{comments.id}
-GET /posts/{posts.id}
-redux state(posts.currentPost)の更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST /posts/{posts.id}/toggle_like
-GET /posts/{posts.id}
-redux state(posts.currentPost)の更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>onCreatePost =&gt; createPost</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>createPost</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>updateUser</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメント群を表示
-コメント作成欄を表示</t>
-    <rPh sb="4" eb="5">
-      <t>グン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1704,12 +1492,6 @@
   <si>
     <t>postId
 comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST /posts/{posts.id}/comments
-GET /posts/{posts.id}
-redux state(posts.currentPost)の更新</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1723,19 +1505,6 @@
 shootDate?
 lng?
 lat?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>firebaseへのアップロード
-PUT /posts
-GET /post/{posts}
-個別ページへの移動</t>
-    <rPh sb="46" eb="48">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イドウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1755,11 +1524,6 @@
   </si>
   <si>
     <t>・*Post</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>onEditPost =&gt; editPost
-onDeletePost =&gt; deletePost</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1843,11 +1607,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PUT /users/{users.id}
-GET /users/{users.id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザは、アカウント名を編集できる
 ユーザは、自分のアカウントを削除できる
 ユーザは、アカウントでの投稿の統計情報のトータルを見れる</t>
@@ -1860,55 +1619,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>onUpdateUser =&gt; updateUser
-onDeleteUser =&gt; deleteUser</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>deleteUser</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DELETE /users/{users.id}
-トップページへ遷移</t>
-    <rPh sb="32" eb="34">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>App</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>action handler
-=&gt; 最終的に呼ばれるべき redux actions等</t>
-    <rPh sb="18" eb="21">
-      <t>サイシュウテキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getPost</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>firebaseへのアップロード
-POST /posts
-GET /post/{posts.id}
-個別ページへの移動</t>
-    <rPh sb="50" eb="52">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>イドウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1941,45 +1656,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GET /posts
-redux state(posts.all)の更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET /posts/{posts.id}
-redux state(posts.currentPost)の更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getMyPosts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GET /posts/自ユーザID
 redux state(posts.mine)の更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getAllPosts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redux state(posts.allFilter)の更新
-getAllPosts()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DELETE /posts/{posts.id}
-getAllPosts()
-getMyPosts()
-トップページへ遷移</t>
-    <rPh sb="59" eb="61">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>isSelected</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1987,31 +1665,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>child component</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PostsList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザは、個別の投稿を「閲覧（一部）」の画面で開くことができる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザは、リスト表示により投稿を一覧で見れる</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ミ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2036,70 +1690,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Present</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>from parent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>to child</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>posts: [*Post]
-isEditable
-onDelete: callback
-onSelect: callback</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>post: *Post
-onSelect: callback</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(PostListItem)
-post: *Post
-onSelect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>componentDidMount =&gt; getAllPosts
-(Filter)
-criterion
-onFilter（フィルタ条件を変えるたびに発動）
- =&gt; filterAllPosts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>componentDidMount =&gt; getMyPosts
-(PostList)
-posts
-isEditable: true
-onDeletePosts =&gt; deletePosts
-onSelect =&gt; selectPrivatePost</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>criterion: *FilterCriterion
 onFilter: callback</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>componentDidMount =&gt; getAllPosts
-(PostList)
-posts: store.posts.all
-isEditable: false
-(Filter)
-criterion: store.posts.allFilter
-onFilter（フィルタ条件を変えるたびに発動）
- =&gt; filterAllPosts</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2124,50 +1716,1167 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>postId
-likedCount
-onToggle: callback</t>
+    <t>dependency</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>componentDidMount =&gt; getPost
-(Comments)
-comments: store.currentPost.comments
-postId: store.currentPost.postId
-onCreate =&gt; createComment
-onEdit =&gt; editComment
-onDelete =&gt; deleteComment
-(Like)
-postId: store.currentPost.postId
-likedCount: store.currentPost.likedCount
-onToggle =&gt; toggleLike</t>
+    <t>*Post.postId</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>use store</t>
+    <t>GET /posts (store.posts.allFilterを条件に検索)
+redux state(posts.all)の更新</t>
+    <rPh sb="34" eb="36">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>store.posts.all</t>
+    <t>fetchCurrentPost</t>
+  </si>
+  <si>
+    <t>POST /posts/{posts.id}/comments
+fetchCurrentPost()</t>
+  </si>
+  <si>
+    <t>PUT /posts/comments/{comments.id}
+fetchCurrentPost()</t>
+  </si>
+  <si>
+    <t>DELETE /posts/comments/{comments.id}
+fetchCurrentPost()</t>
+  </si>
+  <si>
+    <t>POST /posts/{posts.id}/toggle_like
+fetchCurrentPost()</t>
+  </si>
+  <si>
+    <t>fetchAllPosts</t>
+  </si>
+  <si>
+    <t>redux state(posts.allFilter)の更新
+fetchAllPosts()</t>
+  </si>
+  <si>
+    <t>fetchMyPosts</t>
+  </si>
+  <si>
+    <t>DELETE /posts
+fetchMyPosts()</t>
+  </si>
+  <si>
+    <t>fetchAllPosts
+fetchMyPosts</t>
+  </si>
+  <si>
+    <t>/post/:postId</t>
+  </si>
+  <si>
+    <t>firebaseへのアップロード
+POST /posts
+fetchCurrentPost()</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>store.posts.currentPost</t>
+    <t>firebaseへのアップロード
+PUT /posts
+fetchCurrentPost()</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>store.user.userId</t>
+    <t>/</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PostsList
-（チェックボックスあり）</t>
+    <t>DELETE /posts/{posts.id}
+fetchAllPosts()
+fetchMyPosts()</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Filter
-PostsList
-（チェックボックスなし）</t>
+    <t>redirected path
+when action is complete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE /users/{users.id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateUserInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET /users/{users.id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUT /users/{users.id}
+fetchUserInfo()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fetchUserInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fetchUserInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(すべてのコンポーネント)
+*: this.props.*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>component action
+（=&gt; redux action）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>required props</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lifecycle method
+（=&gt; redux action）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(store)
+posts.all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(store)
+posts.currentPost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(store)
+user.userId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(store)
+posts.mine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>required component &amp; passing props
+（=&gt; redux action）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">componentDidMount </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; fetchAllPosts</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">componentDidMount </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; fetchCurrentPost</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">componentDidMount </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; fetchUserInfo</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">componentDidMount </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; fetchMyPosts</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">onEditPost </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; editPost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+onDeletePost </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; deletePost</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">onCreatePost </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; createPost</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">onUpdateUser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; updateUserInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+onDeleteUser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; deleteUser</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Filter)
+criterion
+onFilter（フィルタ条件を変えるたびに発動）
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; filterAllPosts</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AuthCheck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインインした状態であれば子コンポーネントを表示する。
+サインアウトした状態であれば、サインインを促す文章を表示する。</t>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のReduxとconnectされたコンポーネント。
+すべてのRedux StateとRedux Actionを子コンポーネントへ渡す</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリのタイトルロゴを表示
+・サインイン状態であればユーザ名を表示
+・サインアウト状態であれば認証画面へのリンクを表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「閲覧（全部）」へのリンク
+・「投稿」へのリンク
+・「アカウント管理」へのリンク
+・「投稿管理（全部）」へのリンク</t>
+    <rPh sb="2" eb="4">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(store)
+user.userId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>require
+auth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showToast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報を更新しました
+ユーザ情報の更新に失敗しました</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザを削除しました
+ユーザの削除に失敗しました</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿を作成しました
+投稿の作成に失敗しました</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿を更新しました。
+投稿の更新に失敗しました</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toast message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿を削除しました。
+投稿の削除に失敗しました。</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●件の投稿を削除しました。
+投稿の削除に失敗しました。</t>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントの作成に失敗しました。</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントの編集に失敗しました。</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントの削除に失敗しました。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねができませんでした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PostGridItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PostListItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post: *Post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単一のポストをリスト表示に適した形で表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(PostGridItem)
+post: *Post
+(Filter)
+criterion: store.posts.allFilter
+onFilter（フィルタ条件を変えるたびに発動）
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; filterAllPosts</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単一のポストをグリッド表示に適した形で表示する。
+右下にいいね数を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">onDeletePosts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; deletePosts</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post: *Post
+isSelected: boolean
+onSelect: callback</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(PostListItem)
+post: *Post
+isSelected: boolean(propsから計算して渡す)
+onSelect </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; selectMyPost</t>
+    </r>
+    <rPh sb="54" eb="56">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・*Post
+・チェックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・*Post
+・いいね数を右下に表示する</t>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PageViewPostsGrid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コメント一覧
+・コメント作成欄</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント群を表示
+コメント作成欄を表示
+コメントが500文字を超えたら警告を表示</t>
+    <rPh sb="4" eb="5">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redux state(posts.currentPost)の削除
+GET /posts/{posts.id}
+redux state(posts.currentPost)の更新</t>
+    <rPh sb="31" eb="33">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatsBadge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン＋数字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/posts/{posts.id}/like/toggle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・いいね数、コメント数、閲覧数などを、アイコン＋数字の形式で表示する。
+・周りを囲むボックスの有無を選択できる
+・ボタンを押したときの動作を設定できる
+・ボタンとして押せるかどうか見た目で判断できる
+・アクティブ状態（すでにいいねした状態など）を見た目で表現できる</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>icon: image url
+count: Number
+showWithBox: boolean
+clickable: boolean
+onClick: callback
+active: boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Comments)
+comments: store.currentPost.comments
+postId: store.currentPost.postId
+onCreate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; createComment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+onEdit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; editComment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+onDelete </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; deleteComment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+(StatsBadge) いいね用
+icon
+count: store.currentPost.likedCount
+showWithBox: true
+onClick</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; toggleLike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（サインイン状態なら）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>clickable: True（サインイン状態なら）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>active: store.currentPost.likeStatus
+(StatsBadge) コメント数用
+icon
+count: store.currentPost.commentsCount
+showWithBox: true
+(StatsBadge)　閲覧数用
+icon
+count: store.currentPost.viewCount
+showWithBox: true</t>
+    </r>
+    <rPh sb="172" eb="173">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="348" eb="349">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="427" eb="430">
+      <t>エツランスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(StatsBadge) いいね用
+icon
+count: post.likedCount
+(StatsBadge) コメント数用
+icon
+count: post.commentsCount
+(StatsBadge)　閲覧数用
+icon
+count: post.viewCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*Post
+- [*Comment]
+- likeStatus?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id?
+(指定した場合はlikeStatusをReturnに含める)</t>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postId: *Post.postId
+userId?: *User.userId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">componentDidMount </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; fetchCurrentPost（サインイン状態の場合はユーザIDを第二引数に渡すこと）</t>
+    </r>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postId
+userId
+oldImageUrl
+newImageUrl
+description
+shootDate
+lng
+lat
+viewCount
+displayName
+likedCount
+commentsCount
+likeStatus?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2300,7 +3009,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2334,6 +3043,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2531,7 +3252,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2803,9 +3524,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2820,6 +3538,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3210,7 +3961,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5"/>
@@ -3246,62 +3997,62 @@
       <c r="A1" s="41"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
       <c r="J1" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
       <c r="N1" s="45"/>
       <c r="O1" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P1" s="43"/>
       <c r="Q1" s="43"/>
       <c r="R1" s="43"/>
       <c r="S1" s="43"/>
       <c r="T1" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U1" s="43"/>
       <c r="V1" s="43"/>
       <c r="W1" s="43"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z1" s="43"/>
       <c r="AA1" s="43"/>
       <c r="AB1" s="43"/>
       <c r="AC1" s="45"/>
       <c r="AD1" s="44" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="45"/>
       <c r="AI1" s="44" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
       <c r="AM1" s="45"/>
       <c r="AN1" s="44" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="AO1" s="43"/>
       <c r="AP1" s="43"/>
@@ -3374,10 +4125,10 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="47">
         <v>2</v>
@@ -3439,10 +4190,10 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="47">
         <v>2</v>
@@ -3504,10 +4255,10 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="47">
         <v>1</v>
@@ -3570,7 +4321,7 @@
     <row r="6" spans="1:53">
       <c r="A6" s="47"/>
       <c r="B6" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="47">
         <v>1</v>
@@ -3633,7 +4384,7 @@
     <row r="7" spans="1:53">
       <c r="A7" s="47"/>
       <c r="B7" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="47">
         <v>3</v>
@@ -3701,10 +4452,10 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C8" s="47">
         <v>4</v>
@@ -3770,7 +4521,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="B9" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="47">
         <v>2</v>
@@ -3833,7 +4584,7 @@
     <row r="10" spans="1:53">
       <c r="A10" s="47"/>
       <c r="B10" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="47">
         <v>10</v>
@@ -3912,7 +4663,7 @@
     <row r="11" spans="1:53">
       <c r="A11" s="47"/>
       <c r="B11" s="47" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C11" s="47">
         <v>3</v>
@@ -3976,10 +4727,10 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="47">
         <v>5</v>
@@ -58428,7 +59179,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="23.5" customHeight="1"/>
@@ -58474,7 +59225,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.5" customHeight="1">
@@ -58495,7 +59246,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -58529,10 +59280,10 @@
         <v>46</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>0</v>
@@ -58555,14 +59306,14 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
@@ -58592,7 +59343,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="23.5" customHeight="1">
@@ -58685,10 +59436,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -58698,7 +59449,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="23.5" customHeight="1">
@@ -58742,7 +59493,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>62</v>
@@ -58769,7 +59520,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>61</v>
@@ -58789,14 +59540,14 @@
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="4"/>
@@ -58862,7 +59613,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -58908,10 +59659,10 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="14.5"/>
@@ -58932,7 +59683,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="30" customFormat="1" ht="29">
       <c r="A1" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>26</v>
@@ -58944,25 +59695,25 @@
         <v>16</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L1" s="39" t="s">
         <v>55</v>
@@ -58982,7 +59733,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16" t="s">
@@ -58990,10 +59741,10 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
@@ -59015,16 +59766,16 @@
       <c r="F3" s="27"/>
       <c r="G3" s="28"/>
       <c r="H3" s="19" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L3" s="29"/>
     </row>
@@ -59042,7 +59793,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16" t="s">
@@ -59050,10 +59801,10 @@
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
@@ -59072,16 +59823,16 @@
         <v>36</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="17"/>
@@ -59101,18 +59852,18 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L6" s="35"/>
     </row>
@@ -59130,18 +59881,20 @@
         <v>30</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="33" t="s">
+        <v>283</v>
+      </c>
       <c r="I7" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="35"/>
@@ -59160,23 +59913,23 @@
         <v>67</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" s="31" customFormat="1" ht="29">
+    <row r="9" spans="1:12" s="31" customFormat="1" ht="58">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -59190,22 +59943,24 @@
         <v>34</v>
       </c>
       <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>373</v>
+      </c>
       <c r="G9" s="33"/>
       <c r="H9" s="87" t="s">
-        <v>268</v>
+        <v>372</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K9" s="87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="31" customFormat="1" ht="87">
@@ -59222,20 +59977,20 @@
         <v>50</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="35"/>
@@ -59254,14 +60009,14 @@
         <v>31</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="35"/>
@@ -59271,29 +60026,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="90" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="90"/>
       <c r="F12" s="90"/>
       <c r="G12" s="90"/>
       <c r="H12" s="91" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I12" s="91"/>
       <c r="J12" s="91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L12" s="92" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="31" customFormat="1" ht="29">
@@ -59301,16 +60056,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33" t="s">
@@ -59318,10 +60073,10 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="35"/>
@@ -59331,7 +60086,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>70</v>
+        <v>367</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>29</v>
@@ -59340,7 +60095,7 @@
         <v>58</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -59349,39 +60104,39 @@
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" s="94" customFormat="1" ht="29">
-      <c r="A15" s="94">
+    <row r="15" spans="1:12" s="93" customFormat="1" ht="29">
+      <c r="A15" s="93">
         <v>14</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="96" t="s">
-        <v>29</v>
+      <c r="E15" s="96"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="96" t="s">
+        <v>139</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="I15" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="J15" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" s="96"/>
+      <c r="K15" s="95"/>
       <c r="L15" s="92" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="31" customFormat="1" ht="29">
@@ -59389,7 +60144,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>47</v>
@@ -59398,7 +60153,7 @@
         <v>56</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33" t="s">
@@ -59406,10 +60161,10 @@
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="35"/>
@@ -59419,7 +60174,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>35</v>
@@ -59428,14 +60183,14 @@
         <v>51</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="19"/>
       <c r="J17" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -59507,10 +60262,10 @@
     </row>
     <row r="26" spans="1:12" ht="29">
       <c r="B26" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -59548,18 +60303,18 @@
         <v>53</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29">
       <c r="A2" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -59570,6 +60325,1156 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6EF2C2-8F5D-482B-8D1B-02457D7267B7}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="101.5">
+      <c r="A2" s="97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="217.5">
+      <c r="A3" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="101.5">
+      <c r="A4" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="203">
+      <c r="A5" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAA3784-10F0-480C-94D0-1BE0F4760483}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="16.08203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.08203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.08203125" style="75" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="75" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="75" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5" style="75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="75" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="70" customFormat="1" ht="29">
+      <c r="A1" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" s="69"/>
+    </row>
+    <row r="2" spans="1:12" s="103" customFormat="1" ht="29">
+      <c r="A2" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="106" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>318</v>
+      </c>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101" t="s">
+        <v>307</v>
+      </c>
+      <c r="L2" s="102"/>
+    </row>
+    <row r="3" spans="1:12" s="103" customFormat="1" ht="29">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="106" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>313</v>
+      </c>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="102"/>
+    </row>
+    <row r="4" spans="1:12" ht="43.5">
+      <c r="A4" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
+    </row>
+    <row r="5" spans="1:12" ht="58">
+      <c r="A5" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
+    </row>
+    <row r="6" spans="1:12" ht="29">
+      <c r="A6" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
+    </row>
+    <row r="7" spans="1:12" ht="29">
+      <c r="A7" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
+    </row>
+    <row r="8" spans="1:12" s="82" customFormat="1" ht="101.5">
+      <c r="A8" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="81"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="82" customFormat="1" ht="58">
+      <c r="A9" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" s="81"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="79" customFormat="1" ht="348">
+      <c r="A10" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77" t="s">
+        <v>370</v>
+      </c>
+      <c r="L10" s="78"/>
+    </row>
+    <row r="11" spans="1:12" s="79" customFormat="1" ht="58">
+      <c r="A11" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+    </row>
+    <row r="12" spans="1:12" s="79" customFormat="1" ht="72.5">
+      <c r="A12" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
+    </row>
+    <row r="13" spans="1:12" s="86" customFormat="1" ht="58">
+      <c r="A13" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="H13" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
+    </row>
+    <row r="14" spans="1:12" s="86" customFormat="1" ht="58">
+      <c r="A14" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="I14" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="L14" s="85"/>
+    </row>
+    <row r="15" spans="1:12" s="75" customFormat="1" ht="72.5">
+      <c r="A15" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="75" customFormat="1" ht="43.5">
+      <c r="A16" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="72"/>
+    </row>
+    <row r="17" spans="1:11" s="75" customFormat="1" ht="43.5">
+      <c r="A17" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+    </row>
+    <row r="18" spans="1:11" s="75" customFormat="1" ht="159.5">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="105" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="75" customFormat="1" ht="29">
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="105" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+    </row>
+    <row r="20" spans="1:11" s="75" customFormat="1" ht="116">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="105" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF6D762-FC4C-4CE1-8630-6F88B4BBB570}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.4140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.58203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B2" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B3" s="65"/>
+      <c r="C3" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B4" s="65"/>
+      <c r="C4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B5" s="66"/>
+      <c r="C5" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B6" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B7" s="65"/>
+      <c r="C7" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B8" s="65"/>
+      <c r="C8" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B9" s="65"/>
+      <c r="C9" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B10" s="66"/>
+      <c r="C10" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B12" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B13" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B15" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DE87D0-8316-418A-967B-3DBF5984A816}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.08203125" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.08203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.4140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.9140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="40.25" style="18" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.58203125" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="24.08203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30" customHeight="1">
+      <c r="B2" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="30" customHeight="1">
+      <c r="B3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="2:8" ht="30" customHeight="1">
+      <c r="B4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" customHeight="1">
+      <c r="B5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:8" ht="30" customHeight="1">
+      <c r="B6" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+    </row>
+    <row r="7" spans="2:8" ht="30" customHeight="1">
+      <c r="B7" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+    </row>
+    <row r="8" spans="2:8" ht="43.5">
+      <c r="B8" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+    </row>
+    <row r="9" spans="2:8" ht="87">
+      <c r="B9" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="87">
+      <c r="B10" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="29">
+      <c r="B11" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="43.5">
+      <c r="B12" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="29">
+      <c r="B13" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1">
+      <c r="B14" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+    </row>
+    <row r="15" spans="2:8" ht="29">
+      <c r="B15" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="29">
+      <c r="B16" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>346</v>
+      </c>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="29">
+      <c r="B17" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="29">
+      <c r="B18" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="30" customHeight="1">
+      <c r="B19" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="2:8" ht="30" customHeight="1">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="2:8" ht="30" customHeight="1">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="2:8" ht="30" customHeight="1">
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD936395-104D-468C-935A-38804F6275D5}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -59586,23 +61491,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -59613,991 +61518,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6EF2C2-8F5D-482B-8D1B-02457D7267B7}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="26.58203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1">
-      <c r="A1" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="101.5">
-      <c r="A2" s="98" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="98" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="188.5">
-      <c r="A3" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="101.5">
-      <c r="A4" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="203">
-      <c r="A5" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAA3784-10F0-480C-94D0-1BE0F4760483}">
-  <dimension ref="A1:M18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="16.08203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.9140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="41.83203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.58203125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="60.08203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.08203125" style="75" customWidth="1"/>
-    <col min="10" max="10" width="33.25" style="75" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="75" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" style="75" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="75" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="74"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="70" customFormat="1" ht="29">
-      <c r="A1" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>322</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>338</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>300</v>
-      </c>
-      <c r="L1" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" ht="29">
-      <c r="A2" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>257</v>
-      </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
-    </row>
-    <row r="3" spans="1:13" ht="87">
-      <c r="A3" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" s="73"/>
-    </row>
-    <row r="4" spans="1:13" ht="29">
-      <c r="A4" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
-    </row>
-    <row r="5" spans="1:13" ht="29">
-      <c r="A5" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
-    </row>
-    <row r="6" spans="1:13" s="82" customFormat="1" ht="145">
-      <c r="A6" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="G6" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="80" t="s">
-        <v>339</v>
-      </c>
-      <c r="K6" s="81" t="s">
-        <v>332</v>
-      </c>
-      <c r="L6" s="80"/>
-    </row>
-    <row r="7" spans="1:13" s="82" customFormat="1" ht="87">
-      <c r="A7" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="80" t="s">
-        <v>339</v>
-      </c>
-      <c r="K7" s="81" t="s">
-        <v>329</v>
-      </c>
-      <c r="L7" s="80"/>
-    </row>
-    <row r="8" spans="1:13" s="82" customFormat="1" ht="43.5">
-      <c r="A8" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>323</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81" t="s">
-        <v>291</v>
-      </c>
-      <c r="H8" s="81" t="s">
-        <v>331</v>
-      </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="80"/>
-    </row>
-    <row r="9" spans="1:13" s="79" customFormat="1" ht="188.5">
-      <c r="A9" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="G9" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="76" t="s">
-        <v>340</v>
-      </c>
-      <c r="K9" s="77" t="s">
-        <v>337</v>
-      </c>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
-    </row>
-    <row r="10" spans="1:13" s="79" customFormat="1" ht="29">
-      <c r="A10" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="76" t="s">
-        <v>340</v>
-      </c>
-      <c r="K10" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-    </row>
-    <row r="11" spans="1:13" s="93" customFormat="1" ht="72.5">
-      <c r="A11" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>333</v>
-      </c>
-      <c r="I11" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-    </row>
-    <row r="12" spans="1:13" s="93" customFormat="1" ht="43.5">
-      <c r="A12" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>323</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>334</v>
-      </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="93" customFormat="1" ht="43.5">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>323</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>336</v>
-      </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-    </row>
-    <row r="14" spans="1:13" s="79" customFormat="1" ht="72.5">
-      <c r="A14" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
-    </row>
-    <row r="15" spans="1:13" s="86" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A15" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" s="83"/>
-      <c r="G15" s="84" t="s">
-        <v>295</v>
-      </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84" t="s">
-        <v>341</v>
-      </c>
-      <c r="K15" s="84" t="s">
-        <v>296</v>
-      </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
-    </row>
-    <row r="16" spans="1:13" s="86" customFormat="1" ht="101.5">
-      <c r="A16" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>342</v>
-      </c>
-      <c r="G16" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="85"/>
-    </row>
-    <row r="17" spans="1:12" s="75" customFormat="1" ht="58">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71" t="s">
-        <v>318</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>326</v>
-      </c>
-      <c r="I17" s="72" t="s">
-        <v>328</v>
-      </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="71"/>
-    </row>
-    <row r="18" spans="1:12" s="75" customFormat="1" ht="29">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="71" t="s">
-        <v>315</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF6D762-FC4C-4CE1-8630-6F88B4BBB570}">
-  <dimension ref="B2:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.4140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.58203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="39.5" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B2" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B3" s="65"/>
-      <c r="C3" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B4" s="65"/>
-      <c r="C4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B5" s="66"/>
-      <c r="C5" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B6" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B7" s="65"/>
-      <c r="C7" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B8" s="65"/>
-      <c r="C8" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B9" s="65"/>
-      <c r="C9" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B10" s="66"/>
-      <c r="C10" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B12" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B13" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B15" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DE87D0-8316-418A-967B-3DBF5984A816}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="24.08203125" defaultRowHeight="30" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.08203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="18" customWidth="1"/>
-    <col min="3" max="3" width="22" style="18" customWidth="1"/>
-    <col min="4" max="4" width="34.9140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="24.08203125" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="30" customHeight="1">
-      <c r="B2" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1">
-      <c r="B3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1">
-      <c r="B4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1">
-      <c r="B5" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1">
-      <c r="B6" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1">
-      <c r="B7" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>305</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="87">
-      <c r="B8" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="87">
-      <c r="B9" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="43.5">
-      <c r="B10" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="58">
-      <c r="B11" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>305</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="29">
-      <c r="B12" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1">
-      <c r="B13" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="76" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="43.5">
-      <c r="B14" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="43.5">
-      <c r="B15" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="43.5">
-      <c r="B16" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="43.5">
-      <c r="B17" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/packages/travelr-be/spec/spec.xlsx
+++ b/packages/travelr-be/spec/spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr-be\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959ABE95-2C2B-4617-A496-100E698D6361}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6594C7D-4037-481A-8EED-77AB1E88FE09}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12120" activeTab="5" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12120" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="ENV" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">API!$A$1:$L$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">API!$A$1:$L$18</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -71,7 +71,114 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{0B4DA3AD-CE3A-4FA1-8D34-EFA83171A421}">
+    <comment ref="T8" authorId="0" shapeId="0" xr:uid="{1DBB4F8D-1F39-4E53-BC50-E24BF730D531}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">半日
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T9" authorId="0" shapeId="0" xr:uid="{DE86993A-9F07-47AD-95B1-46750D1E9CAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">半日
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U9" authorId="0" shapeId="0" xr:uid="{9FF86F8F-1338-43F4-B41E-071B1F21AA7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U10" authorId="0" shapeId="0" xr:uid="{1D1BA909-E786-4892-8420-E3F63A952325}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>4h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U11" authorId="0" shapeId="0" xr:uid="{61209589-B093-4158-8353-95C84EA0805A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>半日</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y11" authorId="0" shapeId="0" xr:uid="{32CED907-F98C-4148-AD75-3B235776A52A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>21：30まで残業</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC11" authorId="0" shapeId="0" xr:uid="{2675E742-B041-4AE4-BBCD-EF6A36D5C4E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>半日のみ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{0B4DA3AD-CE3A-4FA1-8D34-EFA83171A421}">
       <text>
         <r>
           <rPr>
@@ -86,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q12" authorId="0" shapeId="0" xr:uid="{4A3520F3-A1A6-40F6-B389-DD27092D7071}">
+    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{4A3520F3-A1A6-40F6-B389-DD27092D7071}">
       <text>
         <r>
           <rPr>
@@ -107,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="433">
   <si>
     <t>order</t>
     <phoneticPr fontId="1"/>
@@ -766,22 +873,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id?
-display_name?
-description?
-min_date?
-max_date?
-lng,lat,radius?
-  - radiusはmeterで
-min_view_count?
-max_view_count?
-min_liked_count?
-max_liked_count?
-min_comments_count?
-max_comments_count?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>oldImageUrl
 newImageUrl
 description?
@@ -946,10 +1037,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comments</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>action</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1051,23 +1138,6 @@
   </si>
   <si>
     <t>isAdmin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>userId
-displayName
-description
-minDate
-maxDate
-lng
-lat
-radius
-minViewCount
-maxViewCount
-minLikedCount
-maxLikedCount
-minCommentsCount
-maxCommentsCount</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1219,10 +1289,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>criterion: *FilterCriterion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>postId: *Post.postId
 comment: string</t>
     <phoneticPr fontId="1"/>
@@ -1240,14 +1306,6 @@
   </si>
   <si>
     <t>all</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mine</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mineSelected</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1304,68 +1362,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>isMenuOpen</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/all-list</t>
-  </si>
-  <si>
-    <t>/all-map</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PageViewPostsMap</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>displays
 (*はmodelタブを参照)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・*Post</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="源ノ角ゴシック Code JP R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="源ノ角ゴシック Code JP R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・ユーザ自身のデータであれば編集・削除ボタンを表示</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・*Comment
-・ユーザ自身のデータであれば編集・削除ボタンを表示</t>
-    <rPh sb="14" eb="16">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1415,14 +1417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>selectMyPost</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deletePosts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>component
 state</t>
     <phoneticPr fontId="1"/>
@@ -1451,10 +1445,6 @@
   </si>
   <si>
     <t>do</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redux state(posts.mineSelected)の更新</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1490,11 +1480,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>postId
-comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>editPost</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1527,39 +1512,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザは、2枚の写真をスライダで比較しながら閲覧できる
-ユーザは、投稿のメタ情報・統計情報を閲覧できる
-ユーザ及び管理者は、自身の投稿であれば「編集」ボタンを押して編集画面に遷移できる</t>
-    <rPh sb="55" eb="56">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザは、自身の投稿を編集・削除できる
 管理者は、すべての投稿を編集・削除できる</t>
     <phoneticPr fontId="1"/>
@@ -1587,26 +1539,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザは、個別のコメントを閲覧できる
-ユーザは、個別のコメントを編集・削除できる</t>
-    <rPh sb="5" eb="7">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザは、アカウント名を編集できる
 ユーザは、自分のアカウントを削除できる
 ユーザは、アカウントでの投稿の統計情報のトータルを見れる</t>
@@ -1631,15 +1563,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>displayName: *User.displayName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>postId: *Post.postId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>postIds: [*Post.postId]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1653,11 +1577,6 @@
     <rPh sb="27" eb="28">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET /posts/自ユーザID
-redux state(posts.mine)の更新</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1690,68 +1609,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>criterion: *FilterCriterion
-onFilter: callback</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comments
-postId
-onCreate: callback
-onEdit: callback
-onDelete: callback</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment
-onEdit: callback
-onDelete: callback</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(Comment)
-comment
-onEdit: callback
-onDelete: callback</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dependency</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>*Post.postId</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET /posts (store.posts.allFilterを条件に検索)
-redux state(posts.all)の更新</t>
-    <rPh sb="34" eb="36">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fetchCurrentPost</t>
-  </si>
-  <si>
-    <t>POST /posts/{posts.id}/comments
-fetchCurrentPost()</t>
-  </si>
-  <si>
-    <t>PUT /posts/comments/{comments.id}
-fetchCurrentPost()</t>
-  </si>
-  <si>
-    <t>DELETE /posts/comments/{comments.id}
-fetchCurrentPost()</t>
-  </si>
-  <si>
-    <t>POST /posts/{posts.id}/toggle_like
-fetchCurrentPost()</t>
   </si>
   <si>
     <t>fetchAllPosts</t>
@@ -1773,18 +1636,6 @@
   </si>
   <si>
     <t>/post/:postId</t>
-  </si>
-  <si>
-    <t>firebaseへのアップロード
-POST /posts
-fetchCurrentPost()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>firebaseへのアップロード
-PUT /posts
-fetchCurrentPost()</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/</t>
@@ -1847,22 +1698,12 @@
   </si>
   <si>
     <t>(store)
-posts.all</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(store)
 posts.currentPost</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(store)
 user.userId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(store)
-posts.mine</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1900,41 +1741,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>=&gt; fetchCurrentPost</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">componentDidMount </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="源ノ角ゴシック Code JP R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>=&gt; fetchUserInfo</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">componentDidMount </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="源ノ角ゴシック Code JP R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=&gt; fetchMyPosts</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1979,23 +1786,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">onCreatePost </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="源ノ角ゴシック Code JP R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=&gt; createPost</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">onUpdateUser </t>
     </r>
     <r>
@@ -2034,26 +1824,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">(Filter)
-criterion
-onFilter（フィルタ条件を変えるたびに発動）
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="源ノ角ゴシック Code JP R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=&gt; filterAllPosts</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>yes</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2078,20 +1848,6 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>ブンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>唯一のReduxとconnectされたコンポーネント。
-すべてのRedux StateとRedux Actionを子コンポーネントへ渡す</t>
-    <rPh sb="0" eb="2">
-      <t>ユイイツ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ワタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2171,14 +1927,6 @@
   </si>
   <si>
     <t>general</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>showToast</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>message</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2337,10 +2085,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PostGridItem</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2360,28 +2104,6 @@
     <rPh sb="18" eb="20">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(PostGridItem)
-post: *Post
-(Filter)
-criterion: store.posts.allFilter
-onFilter（フィルタ条件を変えるたびに発動）
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="源ノ角ゴシック Code JP R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=&gt; filterAllPosts</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2405,52 +2127,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">onDeletePosts </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="源ノ角ゴシック Code JP R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=&gt; deletePosts</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>post: *Post
 isSelected: boolean
 onSelect: callback</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(PostListItem)
-post: *Post
-isSelected: boolean(propsから計算して渡す)
-onSelect </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="源ノ角ゴシック Code JP R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=&gt; selectMyPost</t>
-    </r>
-    <rPh sb="54" eb="56">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ワタ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2474,62 +2153,6 @@
   </si>
   <si>
     <t>PageViewPostsGrid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・コメント一覧
-・コメント作成欄</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメント群を表示
-コメント作成欄を表示
-コメントが500文字を超えたら警告を表示</t>
-    <rPh sb="4" eb="5">
-      <t>グン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redux state(posts.currentPost)の削除
-GET /posts/{posts.id}
-redux state(posts.currentPost)の更新</t>
-    <rPh sb="31" eb="33">
-      <t>サクジョ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2622,20 +2245,672 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>icon: image url
+    <t>(StatsBadge) いいね用
+icon
+count: post.likedCount
+(StatsBadge) コメント数用
+icon
+count: post.commentsCount
+(StatsBadge)　閲覧数用
+icon
+count: post.viewCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id?
+(指定した場合はlikeStatusをReturnに含める)</t>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postId
+userId
+oldImageUrl
+newImageUrl
+description
+shootDate
+lng
+lat
+viewCount
+displayName
+likedCount
+commentsCount
+likeStatus?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spinner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PageAuth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isMenuOpen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toggleMenu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isOpen: boolean
+isUserAuthorized: boolean
+onClose: callback</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境構築（webpack,babel,jestほか）</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FETCH_ALL_POSTS_SUCCESS
+FETCH_ALL_POSTS_FAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userId
+displayName
+description
+minDate
+maxDate
+lng
+lat
+radius
+minViewCount
+maxViewCount
+minLikedCount
+maxLikedCount
+minCommentsCount
+maxCommentsCount
+limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id?
+display_name?
+description?
+min_date?
+max_date?
+lng,lat,radius?
+  - radiusはmeterで
+min_view_count?
+max_view_count?
+min_liked_count?
+max_liked_count?
+min_comments_count?
+max_comments_count?
+limit?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/all-grid
+/all-map</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PageViewPostsGrid
+PageViewPostsMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[*Post]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(PostGridItem)
+post: *Post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PageViewPosts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(store)
+posts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.props.location.pathnameによってグリッド表示と地図表示を切り替える。
+切り替えるためのタブを表示する。
+タブを切り替えた際にhistoryを更新する。</t>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>icon: "like"|"comment"|"view"
 count: Number
-showWithBox: boolean
-clickable: boolean
-onClick: callback
-active: boolean</t>
+size?: "small"|"normal"
+showWithBox?: boolean
+clickable?: boolean
+onClick?: callback
+active?: boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tabNumber
+isFilterOpen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Menu)
+isOpen: state.isMenuOpen
+onOpen: toggleMenu
+onClose: toggleMenu
+isUserAuthorized: store.user.userId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>React-routerでルーティングを行う。
+ReduxとConnectする唯一のコンポーネントとなり、子コンポーネントにすべてのRedux State, Redux Actionsを渡す</t>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ユイイツ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isOpen
+onClose
+criterion: *FilterCriterion
+onFilter: callback(*FilterCriterion)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">(Comments)
+      <t xml:space="preserve">(PostGridItem)
+post: *Post
+(Filter)
+isOpen: state.isFilterOpen
+criterion: store.posts.allFilter
+onClose,onFilter:
+  state.isFilterOpen=false
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; filterAllPosts</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store.posts.allFilterを更新
+GET /posts（フィルタ条件により検索）
+redux state(posts.all)の更新</t>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地名からLatLngを取得</t>
+    <rPh sb="0" eb="2">
+      <t>チメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">componentDidMount </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=&gt; fetchPost（サインイン状態の場合はユーザIDを第二引数に渡すこと）</t>
+    </r>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">componentDidMount =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fetchPost</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fetchPost</t>
+  </si>
+  <si>
+    <t>firebaseへのアップロード
+POST /posts
+fetchPost()</t>
+  </si>
+  <si>
+    <t>firebaseへのアップロード
+PUT /posts
+fetchPost()</t>
+  </si>
+  <si>
+    <t>POST /posts/{posts.id}/comments
+fetchPost()</t>
+  </si>
+  <si>
+    <t>PUT /posts/comments/{comments.id}
+fetchPost()</t>
+  </si>
+  <si>
+    <t>DELETE /posts/comments/{comments.id}
+fetchPost()</t>
+  </si>
+  <si>
+    <t>POST /posts/{posts.id}/toggle_like
+fetchPost()</t>
+  </si>
+  <si>
+    <t>*Post
+comment(記入中のコメント)</t>
+    <rPh sb="14" eb="16">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*Post
+- comments:[*Comment]
+- likeStatus?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fetchPost
+addComment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createPost(成功時はPageViewPostページへ移動)</t>
+    <rPh sb="11" eb="13">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/users/token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークンからユーザ情報を取得</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users.getUserByToken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400: 'user not found'
+・ユーザが見つからなかったとき</t>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(store)
+user.displayName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FETCH_MY_POSTS_SUCCESS
+FETCH_MY_POSTS_FAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE_MY_POSTS_SUCCESS
+DELETE_MY_POSTS_FAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[*Post]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[*Post.postId]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>selectMyPosts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT_MY_POSTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>selectMyPostsAll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>selectMyPostsReset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT_MY_POSTS_ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT_MY_POSTS_RESET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPosts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET /posts/自ユーザID
+redux state(posts.myPosts)の更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPostsSelected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redux state(posts.myPostsSelected)の更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Snackbar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>App</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>snackbarQueue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[string]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージを表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(store)
+app.snackbarQueue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt;
+reduceSnackbarQueue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reduceStackbarQueue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redux state(app.snackbarQueue)の先頭を削除</t>
+    <rPh sb="31" eb="33">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REDUCE_SNACKBAR_QUEUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・*Post</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="源ノ角ゴシック Code JP R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザ自身のデータであれば編集・削除ボタンを表示
+・コメント一覧
+・コメント作成欄
+・*Comment
+・ユーザ自身のデータであれば編集・削除ボタンを表示</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addSnackbarQueue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user: UserStore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user: UserStore
+newUserInfo: NewUserInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user: UserStore
+callback: any =&gt; any</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>criterion: FilterCriterion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user: UserStore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user: UserStore
+postIds: Array&lt;number&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FETCH_USER_INFO_SUCCESS
+FETCH_USER_INFO_FAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPDATE_USER_INFO_SUCCESS
+UPDATE_USER_INFO_FAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE_USER_SUCCESS
+DELETE_USER_FAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE_POST_SUCCESS
+CREATE_POST_FAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PageViewPostComments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE_COMMENT_SUCCESS
+CREATE_COMMENT_FAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user: UserStore
+postId: number
+comment: string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments: Array&lt;Comment&gt;
+onCreateComment: string=&gt;void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(PageViewPostComments)
 comments: store.currentPost.comments
-postId: store.currentPost.postId
-onCreate </t>
+onCreateComment </t>
     </r>
     <r>
       <rPr>
@@ -2780,103 +3055,157 @@
 count: store.currentPost.viewCount
 showWithBox: true</t>
     </r>
-    <rPh sb="172" eb="173">
+    <rPh sb="158" eb="159">
       <t>ヨウ</t>
     </rPh>
-    <rPh sb="260" eb="262">
+    <rPh sb="246" eb="248">
       <t>ジョウタイ</t>
     </rPh>
-    <rPh sb="287" eb="289">
+    <rPh sb="273" eb="275">
       <t>ジョウタイ</t>
     </rPh>
-    <rPh sb="348" eb="349">
+    <rPh sb="334" eb="335">
       <t>スウ</t>
     </rPh>
-    <rPh sb="427" eb="430">
+    <rPh sb="413" eb="416">
       <t>エツランスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(StatsBadge) いいね用
-icon
-count: post.likedCount
-(StatsBadge) コメント数用
-icon
-count: post.commentsCount
-(StatsBadge)　閲覧数用
-icon
-count: post.viewCount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*Post
-- [*Comment]
-- likeStatus?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id?
-(指定した場合はlikeStatusをReturnに含める)</t>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
+    <t>ユーザは、2枚の写真をスライダで比較しながら閲覧できる
+ユーザは、投稿のメタ情報・統計情報を閲覧できる
+ユーザ及び管理者は、自身の投稿であれば「編集」ボタンを押して編集画面に遷移できる</t>
+    <rPh sb="55" eb="56">
+      <t>オヨ</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
+    <rPh sb="57" eb="60">
+      <t>カンリシャ</t>
     </rPh>
-    <rPh sb="35" eb="36">
-      <t>フク</t>
+    <rPh sb="62" eb="64">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>postId: *Post.postId
-userId?: *User.userId</t>
+    <t>コメント群を表示
+コメント作成欄を表示
+コメントが500文字を超えたら警告を表示
+ユーザは、個別のコメントを閲覧できる
+ユーザは、個別のコメントを編集・削除できる</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">componentDidMount </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="源ノ角ゴシック Code JP R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=&gt; fetchCurrentPost（サインイン状態の場合はユーザIDを第二引数に渡すこと）</t>
-    </r>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
+    <t>user: UserStore
+newPost: NewPost
+callback: any=&gt;any</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deletePosts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=&gt;
+fetchMyPosts
+deletePosts
+selectMyPosts
+selectMyPostsAll
+selectMyPostsReset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fetchMyPosts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PagePostsView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PagePostsViewGrid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PagePostsViewMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PagePost
+PagePostView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PagePostViewComment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PagePostEdit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PageCreatePost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fetchPost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postId: number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FETCH_POST_START
+FETCH_POST_SUCCESS
+FETCH_POST_FAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redux state(posts.currentPost)の削除
+GET /posts/{posts.id}
+redux state(posts.currentPost)の更新</t>
+    <rPh sb="31" eb="33">
+      <t>サクジョ</t>
     </rPh>
-    <rPh sb="55" eb="57">
-      <t>ダイニ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ワタ</t>
+    <rPh sb="87" eb="89">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>postId
-userId
-oldImageUrl
-newImageUrl
-description
-shootDate
-lng
-lat
-viewCount
-displayName
-likedCount
-commentsCount
-likeStatus?</t>
+    <t>投稿の取得に失敗しました</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3009,7 +3338,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3055,6 +3384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3252,7 +3587,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3570,6 +3905,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3957,11 +4325,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BA1000"/>
+  <dimension ref="A1:BA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomLeft" activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5"/>
@@ -4038,21 +4406,21 @@
       <c r="AB1" s="43"/>
       <c r="AC1" s="45"/>
       <c r="AD1" s="44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="45"/>
       <c r="AI1" s="44" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
       <c r="AM1" s="45"/>
       <c r="AN1" s="44" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="AO1" s="43"/>
       <c r="AP1" s="43"/>
@@ -4455,12 +4823,14 @@
         <v>90</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C8" s="47">
         <v>4</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="47">
+        <v>2</v>
+      </c>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
@@ -4479,14 +4849,10 @@
         <v>1</v>
       </c>
       <c r="T8" s="51">
-        <v>2</v>
-      </c>
-      <c r="U8" s="50">
-        <v>2</v>
-      </c>
-      <c r="V8" s="50">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
       <c r="W8" s="50"/>
       <c r="X8" s="52"/>
       <c r="Y8" s="51"/>
@@ -4526,7 +4892,9 @@
       <c r="C9" s="47">
         <v>2</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="47">
+        <v>1</v>
+      </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
@@ -4542,15 +4910,15 @@
       <c r="Q9" s="50"/>
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="50"/>
+      <c r="T9" s="51">
+        <v>1</v>
+      </c>
+      <c r="U9" s="50">
+        <v>1</v>
+      </c>
       <c r="V9" s="50"/>
-      <c r="W9" s="50">
-        <v>2</v>
-      </c>
-      <c r="X9" s="52">
-        <v>2</v>
-      </c>
+      <c r="W9" s="50"/>
+      <c r="X9" s="52"/>
       <c r="Y9" s="51"/>
       <c r="Z9" s="50"/>
       <c r="AA9" s="50"/>
@@ -4582,14 +4950,15 @@
       <c r="BA9" s="47"/>
     </row>
     <row r="10" spans="1:53">
-      <c r="A10" s="47"/>
       <c r="B10" s="47" t="s">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="C10" s="47">
-        <v>10</v>
-      </c>
-      <c r="D10" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="47">
+        <v>0.5</v>
+      </c>
       <c r="E10" s="48"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
@@ -4606,40 +4975,22 @@
       <c r="R10" s="50"/>
       <c r="S10" s="50"/>
       <c r="T10" s="51"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
+      <c r="U10" s="50">
+        <v>1</v>
+      </c>
+      <c r="V10" s="46"/>
       <c r="W10" s="50"/>
       <c r="X10" s="52"/>
-      <c r="Y10" s="51">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="50">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="50">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="50">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="52">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="51">
-        <v>2</v>
-      </c>
-      <c r="AE10" s="50">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="50">
-        <v>2</v>
-      </c>
-      <c r="AG10" s="50">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="52">
-        <v>2</v>
-      </c>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="52"/>
       <c r="AI10" s="51"/>
       <c r="AJ10" s="50"/>
       <c r="AK10" s="50"/>
@@ -4663,10 +5014,10 @@
     <row r="11" spans="1:53">
       <c r="A11" s="47"/>
       <c r="B11" s="47" t="s">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="C11" s="47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="48"/>
@@ -4685,29 +5036,39 @@
       <c r="R11" s="50"/>
       <c r="S11" s="50"/>
       <c r="T11" s="51"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
+      <c r="U11" s="50">
+        <v>1</v>
+      </c>
+      <c r="V11" s="50">
+        <v>1</v>
+      </c>
+      <c r="W11" s="50">
+        <v>1</v>
+      </c>
+      <c r="X11" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="50">
+        <v>1</v>
+      </c>
       <c r="AB11" s="50"/>
-      <c r="AC11" s="52"/>
+      <c r="AC11" s="52">
+        <v>1</v>
+      </c>
       <c r="AD11" s="51"/>
       <c r="AE11" s="50"/>
       <c r="AF11" s="50"/>
       <c r="AG11" s="50"/>
       <c r="AH11" s="52"/>
-      <c r="AI11" s="51">
-        <v>2</v>
-      </c>
-      <c r="AJ11" s="50">
-        <v>2</v>
-      </c>
-      <c r="AK11" s="50">
-        <v>2</v>
-      </c>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
       <c r="AL11" s="50"/>
       <c r="AM11" s="52"/>
       <c r="AN11" s="51"/>
@@ -4726,14 +5087,12 @@
       <c r="BA11" s="47"/>
     </row>
     <row r="12" spans="1:53">
-      <c r="A12" s="47" t="s">
-        <v>89</v>
-      </c>
+      <c r="A12" s="47"/>
       <c r="B12" s="47" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="C12" s="47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="48"/>
@@ -4747,12 +5106,8 @@
       <c r="M12" s="50"/>
       <c r="N12" s="52"/>
       <c r="O12" s="50"/>
-      <c r="P12" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="50">
-        <v>1</v>
-      </c>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
       <c r="S12" s="50"/>
       <c r="T12" s="51"/>
@@ -4765,23 +5120,23 @@
       <c r="AA12" s="50"/>
       <c r="AB12" s="50"/>
       <c r="AC12" s="52"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
+      <c r="AD12" s="51">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="50">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="50">
+        <v>2</v>
+      </c>
       <c r="AG12" s="50"/>
       <c r="AH12" s="52"/>
       <c r="AI12" s="51"/>
       <c r="AJ12" s="50"/>
       <c r="AK12" s="50"/>
-      <c r="AL12" s="50">
-        <v>2</v>
-      </c>
-      <c r="AM12" s="52">
-        <v>2</v>
-      </c>
-      <c r="AN12" s="51">
-        <v>2</v>
-      </c>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="51"/>
       <c r="AO12" s="50"/>
       <c r="AP12" s="50"/>
       <c r="AQ12" s="50"/>
@@ -4797,9 +5152,15 @@
       <c r="BA12" s="47"/>
     </row>
     <row r="13" spans="1:53">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="47">
+        <v>5</v>
+      </c>
       <c r="D13" s="47"/>
       <c r="E13" s="48"/>
       <c r="F13" s="49"/>
@@ -4812,8 +5173,12 @@
       <c r="M13" s="50"/>
       <c r="N13" s="52"/>
       <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
+      <c r="P13" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="50">
+        <v>1</v>
+      </c>
       <c r="R13" s="50"/>
       <c r="S13" s="50"/>
       <c r="T13" s="51"/>
@@ -4829,9 +5194,15 @@
       <c r="AD13" s="51"/>
       <c r="AE13" s="50"/>
       <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="51"/>
+      <c r="AG13" s="50">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="52">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="51">
+        <v>2</v>
+      </c>
       <c r="AJ13" s="50"/>
       <c r="AK13" s="50"/>
       <c r="AL13" s="50"/>
@@ -5901,46 +6272,46 @@
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="53"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="57"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="50"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="52"/>
       <c r="AS33" s="47"/>
       <c r="AT33" s="47"/>
       <c r="AU33" s="47"/>
@@ -59136,34 +59507,89 @@
       <c r="AZ1000" s="47"/>
       <c r="BA1000" s="47"/>
     </row>
+    <row r="1001" spans="1:53">
+      <c r="A1001" s="47"/>
+      <c r="B1001" s="47"/>
+      <c r="C1001" s="47"/>
+      <c r="D1001" s="47"/>
+      <c r="E1001" s="55"/>
+      <c r="F1001" s="47"/>
+      <c r="G1001" s="47"/>
+      <c r="H1001" s="53"/>
+      <c r="I1001" s="53"/>
+      <c r="J1001" s="56"/>
+      <c r="K1001" s="53"/>
+      <c r="L1001" s="53"/>
+      <c r="M1001" s="53"/>
+      <c r="N1001" s="57"/>
+      <c r="O1001" s="53"/>
+      <c r="P1001" s="53"/>
+      <c r="Q1001" s="53"/>
+      <c r="R1001" s="53"/>
+      <c r="S1001" s="53"/>
+      <c r="T1001" s="56"/>
+      <c r="U1001" s="53"/>
+      <c r="V1001" s="53"/>
+      <c r="W1001" s="53"/>
+      <c r="X1001" s="57"/>
+      <c r="Y1001" s="56"/>
+      <c r="Z1001" s="53"/>
+      <c r="AA1001" s="53"/>
+      <c r="AB1001" s="53"/>
+      <c r="AC1001" s="57"/>
+      <c r="AD1001" s="56"/>
+      <c r="AE1001" s="53"/>
+      <c r="AF1001" s="53"/>
+      <c r="AG1001" s="53"/>
+      <c r="AH1001" s="57"/>
+      <c r="AI1001" s="56"/>
+      <c r="AJ1001" s="53"/>
+      <c r="AK1001" s="53"/>
+      <c r="AL1001" s="53"/>
+      <c r="AM1001" s="57"/>
+      <c r="AN1001" s="56"/>
+      <c r="AO1001" s="53"/>
+      <c r="AP1001" s="53"/>
+      <c r="AQ1001" s="53"/>
+      <c r="AR1001" s="57"/>
+      <c r="AS1001" s="47"/>
+      <c r="AT1001" s="47"/>
+      <c r="AU1001" s="47"/>
+      <c r="AV1001" s="47"/>
+      <c r="AW1001" s="47"/>
+      <c r="AX1001" s="47"/>
+      <c r="AY1001" s="47"/>
+      <c r="AZ1001" s="47"/>
+      <c r="BA1001" s="47"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E1:AH100">
+  <conditionalFormatting sqref="E1:AH9 E11:AH101 W10:AH10 E10:U10">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:AH100">
+  <conditionalFormatting sqref="E1:AH9 E11:AH101 W10:AH10 E10:U10">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AM100">
+  <conditionalFormatting sqref="AI1:AM101">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AM100">
+  <conditionalFormatting sqref="AI1:AM101">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN1:AR100">
+  <conditionalFormatting sqref="AN1:AR101">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN1:AR100">
+  <conditionalFormatting sqref="AN1:AR101">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -59656,13 +60082,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="14.5"/>
@@ -59704,7 +60130,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I1" s="38" t="s">
         <v>129</v>
@@ -59741,7 +60167,7 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>105</v>
@@ -59749,462 +60175,481 @@
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" s="30" customFormat="1" ht="29">
+    <row r="3" spans="1:12" ht="29">
       <c r="A3" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>68</v>
+        <v>361</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="19" t="s">
-        <v>201</v>
+        <v>362</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>93</v>
+        <v>364</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>363</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" spans="1:12" ht="87">
+        <v>139</v>
+      </c>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" s="30" customFormat="1" ht="29">
       <c r="A4" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="I4" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+        <v>126</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" ht="87">
       <c r="A5" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>123</v>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="I5" s="19" t="s">
         <v>147</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:12" s="31" customFormat="1" ht="203">
-      <c r="A6" s="31">
+    <row r="6" spans="1:12" ht="87">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" s="31" customFormat="1" ht="217.5">
+      <c r="A7" s="31">
         <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" s="31" customFormat="1" ht="87">
-      <c r="A7" s="31">
-        <v>6</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>127</v>
+      </c>
       <c r="L7" s="35"/>
     </row>
-    <row r="8" spans="1:12" s="31" customFormat="1" ht="72.5">
+    <row r="8" spans="1:12" s="31" customFormat="1" ht="87">
       <c r="A8" s="31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>123</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="34"/>
+        <v>134</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>259</v>
+      </c>
       <c r="I8" s="34" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" s="31" customFormat="1" ht="58">
+    <row r="9" spans="1:12" s="31" customFormat="1" ht="72.5">
       <c r="A9" s="31">
+        <v>7</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" s="31" customFormat="1" ht="58">
+      <c r="A10" s="31">
         <v>8</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="87" t="s">
-        <v>372</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="31" customFormat="1" ht="87">
-      <c r="A10" s="31">
-        <v>9</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>198</v>
+        <v>34</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="87" t="s">
+        <v>358</v>
       </c>
       <c r="I10" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="1:12" s="31" customFormat="1" ht="29">
+      <c r="L10" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="31" customFormat="1" ht="87">
       <c r="A11" s="31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>123</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="G11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>140</v>
+      </c>
       <c r="J11" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:12" s="88" customFormat="1">
-      <c r="A12" s="88">
+    <row r="12" spans="1:12" s="31" customFormat="1" ht="29">
+      <c r="A12" s="31">
+        <v>10</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="1:12" s="88" customFormat="1">
+      <c r="A13" s="88">
         <v>11</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B13" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C13" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D13" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91" t="s">
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="92" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="31" customFormat="1" ht="29">
-      <c r="A13" s="31">
-        <v>12</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34" t="s">
+      <c r="K13" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="35"/>
+      <c r="L13" s="92" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="31" customFormat="1" ht="29">
       <c r="A14" s="31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>367</v>
+        <v>70</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>123</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="19"/>
+      <c r="G14" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34" t="s">
+        <v>140</v>
+      </c>
       <c r="J14" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" s="93" customFormat="1" ht="29">
-      <c r="A15" s="93">
+    <row r="15" spans="1:12" s="31" customFormat="1" ht="29">
+      <c r="A15" s="31">
+        <v>13</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" s="93" customFormat="1" ht="29">
+      <c r="A16" s="93">
         <v>14</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B16" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="95" t="s">
+      <c r="E16" s="96"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="92" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="31" customFormat="1" ht="29">
-      <c r="A16" s="31">
+      <c r="K16" s="95"/>
+      <c r="L16" s="92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="31" customFormat="1" ht="29">
+      <c r="A17" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B17" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E17" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="33" t="s">
+      <c r="H17" s="34"/>
+      <c r="I17" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="1:12" ht="29">
-      <c r="A17" s="18">
+      <c r="K17" s="33"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" ht="29">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="K18" s="16"/>
       <c r="L18" s="17"/>
     </row>
@@ -60226,7 +60671,7 @@
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -60248,30 +60693,43 @@
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="26" spans="1:12" ht="29">
-      <c r="B26" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>150</v>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="27" spans="1:12" ht="29">
+      <c r="B27" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L17" xr:uid="{B582B6D1-657A-4209-9760-1D0942AA1BB5}">
-    <sortState ref="A2:L17">
-      <sortCondition ref="A1:A17"/>
+  <autoFilter ref="A1:L18" xr:uid="{B582B6D1-657A-4209-9760-1D0942AA1BB5}">
+    <sortState ref="A2:L18">
+      <sortCondition ref="A1:A18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -60286,7 +60744,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -60329,7 +60787,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -60343,42 +60801,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1">
       <c r="A1" s="62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="101.5">
       <c r="A2" s="97" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="217.5">
       <c r="A3" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
       <c r="A4" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="203">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="217.5">
       <c r="A5" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>182</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -60390,559 +60848,627 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAA3784-10F0-480C-94D0-1BE0F4760483}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="16.08203125" style="75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="75" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.08203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08203125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="75" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="75" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.5" style="75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="75" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="74"/>
+    <col min="5" max="5" width="41.83203125" style="75" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.08203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.58203125" style="75" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="75" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="75" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="75" customWidth="1"/>
+    <col min="12" max="12" width="43.5" style="75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="75" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="70" customFormat="1" ht="29">
+    <row r="1" spans="1:13" s="70" customFormat="1" ht="29">
       <c r="A1" s="67" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D1" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="68" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>309</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>315</v>
-      </c>
-      <c r="L1" s="69"/>
-    </row>
-    <row r="2" spans="1:12" s="103" customFormat="1" ht="29">
+      <c r="L1" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" s="103" customFormat="1" ht="43.5">
       <c r="A2" s="100" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="100"/>
       <c r="C2" s="106" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D2" s="101"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="101" t="s">
-        <v>327</v>
-      </c>
+      <c r="F2" s="101"/>
       <c r="G2" s="101" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="H2" s="101" t="s">
-        <v>318</v>
-      </c>
-      <c r="I2" s="101"/>
+        <v>280</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>283</v>
+      </c>
       <c r="J2" s="101"/>
-      <c r="K2" s="101" t="s">
-        <v>307</v>
-      </c>
-      <c r="L2" s="102"/>
-    </row>
-    <row r="3" spans="1:12" s="103" customFormat="1" ht="29">
+      <c r="K2" s="101"/>
+      <c r="L2" s="101" t="s">
+        <v>275</v>
+      </c>
+      <c r="M2" s="102"/>
+    </row>
+    <row r="3" spans="1:13" s="103" customFormat="1" ht="29">
       <c r="A3" s="100"/>
       <c r="B3" s="100"/>
       <c r="C3" s="106" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
-      <c r="F3" s="101" t="s">
-        <v>326</v>
-      </c>
+      <c r="F3" s="101"/>
       <c r="G3" s="101" t="s">
-        <v>313</v>
-      </c>
-      <c r="H3" s="101"/>
+        <v>288</v>
+      </c>
+      <c r="H3" s="101" t="s">
+        <v>280</v>
+      </c>
       <c r="I3" s="101"/>
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
-      <c r="L3" s="102"/>
-    </row>
-    <row r="4" spans="1:12" ht="43.5">
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
+    </row>
+    <row r="4" spans="1:13" ht="72.5">
       <c r="A4" s="71" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="E4" s="72"/>
       <c r="F4" s="72"/>
-      <c r="G4" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72" t="s">
+        <v>294</v>
+      </c>
       <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
-    </row>
-    <row r="5" spans="1:12" ht="58">
+      <c r="J4" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="M4" s="73"/>
+    </row>
+    <row r="5" spans="1:13" ht="58">
       <c r="A5" s="71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="E5" s="72"/>
-      <c r="F5" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>328</v>
+      </c>
       <c r="I5" s="72"/>
-      <c r="J5" s="72" t="s">
-        <v>225</v>
-      </c>
+      <c r="J5" s="72"/>
       <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
-    </row>
-    <row r="6" spans="1:12" ht="29">
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
+    </row>
+    <row r="6" spans="1:13" ht="29">
       <c r="A6" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E6" s="72"/>
-      <c r="F6" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72" t="s">
+        <v>162</v>
+      </c>
       <c r="H6" s="72"/>
       <c r="I6" s="72"/>
       <c r="J6" s="72"/>
       <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
-    </row>
-    <row r="7" spans="1:12" ht="29">
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
+    </row>
+    <row r="7" spans="1:13" ht="29">
       <c r="A7" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="72"/>
       <c r="H7" s="72"/>
       <c r="I7" s="72"/>
       <c r="J7" s="72"/>
       <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
-    </row>
-    <row r="8" spans="1:12" s="82" customFormat="1" ht="101.5">
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
+    </row>
+    <row r="8" spans="1:13" s="82" customFormat="1" ht="130.5">
       <c r="A8" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="80" t="s">
         <v>226</v>
       </c>
+      <c r="B8" s="81" t="s">
+        <v>333</v>
+      </c>
       <c r="C8" s="104" t="s">
-        <v>361</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81" t="s">
-        <v>276</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>420</v>
+      </c>
+      <c r="F8" s="81"/>
       <c r="G8" s="81" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="H8" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="82" customFormat="1" ht="29">
+      <c r="A9" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="82" customFormat="1" ht="58">
-      <c r="A9" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="80" t="s">
+      <c r="D9" s="81"/>
+      <c r="E9" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="82" customFormat="1" ht="29">
+      <c r="A10" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+    </row>
+    <row r="11" spans="1:13" s="79" customFormat="1" ht="333.5">
+      <c r="A11" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>357</v>
+      </c>
+      <c r="L11" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="M11" s="78"/>
+    </row>
+    <row r="12" spans="1:13" s="79" customFormat="1" ht="87">
+      <c r="A12" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
+    </row>
+    <row r="13" spans="1:13" s="79" customFormat="1" ht="58">
+      <c r="A13" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="J13" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+    </row>
+    <row r="14" spans="1:13" s="79" customFormat="1" ht="72.5">
+      <c r="A14" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>426</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
+    </row>
+    <row r="15" spans="1:13" s="86" customFormat="1" ht="58">
+      <c r="A15" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" s="81" t="s">
-        <v>311</v>
-      </c>
-      <c r="H9" s="81" t="s">
-        <v>316</v>
-      </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="81" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="79" customFormat="1" ht="348">
-      <c r="A10" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="107" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="77" t="s">
-        <v>312</v>
-      </c>
-      <c r="H10" s="77" t="s">
-        <v>375</v>
-      </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77" t="s">
-        <v>370</v>
-      </c>
-      <c r="L10" s="78"/>
-    </row>
-    <row r="11" spans="1:12" s="79" customFormat="1" ht="58">
-      <c r="A11" s="76" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="K15" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85"/>
+    </row>
+    <row r="16" spans="1:13" s="86" customFormat="1" ht="87">
+      <c r="A16" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="G11" s="77" t="s">
-        <v>312</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>317</v>
-      </c>
-      <c r="I11" s="77" t="s">
-        <v>320</v>
-      </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-    </row>
-    <row r="12" spans="1:12" s="79" customFormat="1" ht="72.5">
-      <c r="A12" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>324</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
-    </row>
-    <row r="13" spans="1:12" s="86" customFormat="1" ht="58">
-      <c r="A13" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="108" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="84" t="s">
-        <v>324</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="H13" s="84" t="s">
-        <v>318</v>
-      </c>
-      <c r="I13" s="84" t="s">
-        <v>322</v>
-      </c>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85"/>
-    </row>
-    <row r="14" spans="1:12" s="86" customFormat="1" ht="58">
-      <c r="A14" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="108" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>324</v>
-      </c>
-      <c r="F14" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14" s="84" t="s">
-        <v>314</v>
-      </c>
-      <c r="H14" s="84" t="s">
-        <v>319</v>
-      </c>
-      <c r="I14" s="84" t="s">
-        <v>356</v>
-      </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84" t="s">
-        <v>358</v>
-      </c>
-      <c r="L14" s="85"/>
-    </row>
-    <row r="15" spans="1:12" s="75" customFormat="1" ht="72.5">
-      <c r="A15" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>362</v>
-      </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="75" customFormat="1" ht="43.5">
-      <c r="A16" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="K16" s="72"/>
-    </row>
-    <row r="17" spans="1:11" s="75" customFormat="1" ht="43.5">
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="114" t="s">
+        <v>418</v>
+      </c>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85"/>
+    </row>
+    <row r="17" spans="1:12" s="75" customFormat="1" ht="58">
       <c r="A17" s="71" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E17" s="72"/>
-      <c r="F17" s="72" t="s">
-        <v>263</v>
-      </c>
+      <c r="F17" s="72"/>
       <c r="G17" s="72" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="72"/>
+        <v>247</v>
+      </c>
+      <c r="H17" s="72" t="s">
+        <v>344</v>
+      </c>
       <c r="I17" s="72"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
-    </row>
-    <row r="18" spans="1:11" s="75" customFormat="1" ht="159.5">
+      <c r="J17" s="72"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+    </row>
+    <row r="18" spans="1:12" s="75" customFormat="1" ht="145">
       <c r="A18" s="71"/>
       <c r="B18" s="71"/>
       <c r="C18" s="105" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="E18" s="72"/>
-      <c r="F18" s="72" t="s">
-        <v>353</v>
-      </c>
+      <c r="F18" s="72"/>
       <c r="G18" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="H18" s="72"/>
+        <v>320</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>340</v>
+      </c>
       <c r="I18" s="72"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="75" customFormat="1" ht="29">
+      <c r="J18" s="72"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="72"/>
+    </row>
+    <row r="19" spans="1:12" s="75" customFormat="1" ht="29">
       <c r="A19" s="71"/>
       <c r="B19" s="71"/>
       <c r="C19" s="105" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="E19" s="72"/>
-      <c r="F19" s="72" t="s">
-        <v>355</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>352</v>
-      </c>
-      <c r="H19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72" t="s">
+        <v>388</v>
+      </c>
       <c r="I19" s="72"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-    </row>
-    <row r="20" spans="1:11" s="75" customFormat="1" ht="116">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="105" t="s">
-        <v>365</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72" t="s">
-        <v>368</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
+      <c r="J19" s="118" t="s">
+        <v>389</v>
+      </c>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
+    </row>
+    <row r="20" spans="1:12" s="112" customFormat="1" ht="159.5">
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111" t="s">
+        <v>311</v>
+      </c>
+      <c r="H20" s="111" t="s">
+        <v>313</v>
+      </c>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="111" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="112" customFormat="1" ht="29">
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21" s="111" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111" t="s">
+        <v>312</v>
+      </c>
+      <c r="H21" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="111"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="C23" s="75" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="C24" s="75" t="s">
+        <v>347</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -60952,17 +61478,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF6D762-FC4C-4CE1-8630-6F88B4BBB570}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.4140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="18" customWidth="1"/>
     <col min="4" max="4" width="26.58203125" style="18" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="18" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="18"/>
@@ -60970,17 +61496,17 @@
   <sheetData>
     <row r="2" spans="2:4" ht="24.5" customHeight="1">
       <c r="B2" s="64" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="2:4" ht="24.5" customHeight="1">
       <c r="B3" s="65"/>
       <c r="C3" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D3" s="24"/>
     </row>
@@ -60994,7 +61520,7 @@
     <row r="5" spans="2:4" ht="24.5" customHeight="1">
       <c r="B5" s="66"/>
       <c r="C5" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" s="24"/>
     </row>
@@ -61003,71 +61529,98 @@
         <v>6</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24.5" customHeight="1">
       <c r="B7" s="65"/>
       <c r="C7" s="24" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.5" customHeight="1">
       <c r="B8" s="65"/>
-      <c r="C8" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>193</v>
+      <c r="C8" s="113" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.5" customHeight="1">
       <c r="B9" s="65"/>
-      <c r="C9" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>194</v>
+      <c r="C9" s="113" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.5" customHeight="1">
       <c r="B10" s="66"/>
-      <c r="C10" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>198</v>
+      <c r="C10" s="109" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="115" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="117" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B12" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B13" s="18" t="s">
-        <v>179</v>
-      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B14" s="16"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B15" s="18" t="s">
-        <v>209</v>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B16" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="24.5" customHeight="1">
+      <c r="B17" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="24.5" customHeight="1">
+      <c r="B19" s="18" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -61076,396 +61629,569 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H22"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.08203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.08203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" style="31" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="18" customWidth="1"/>
     <col min="3" max="3" width="28.4140625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.9140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="52.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="40.25" style="18" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.58203125" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="24.08203125" style="18"/>
+    <col min="5" max="5" width="30.4140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="46.83203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="26.4140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="40.25" style="18" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.58203125" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="24.08203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30" customHeight="1">
+    <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="B2" s="61" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>247</v>
+        <v>369</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>300</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G2" s="61"/>
       <c r="H2" s="61" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="30" customHeight="1">
+        <v>301</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>366</v>
+      </c>
       <c r="B3" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+        <v>274</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>402</v>
+      </c>
       <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:8" ht="30" customHeight="1">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>366</v>
+      </c>
       <c r="B4" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>304</v>
-      </c>
+      <c r="D4" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="26"/>
       <c r="F4" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" s="26"/>
+        <v>272</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>403</v>
+      </c>
       <c r="H4" s="26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1">
+        <v>297</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="31" t="s">
+        <v>366</v>
+      </c>
       <c r="B5" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="26" t="s">
-        <v>301</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="G5" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1">
+      <c r="I5" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" s="119" customFormat="1" ht="43.5">
+      <c r="A6" s="31" t="s">
+        <v>366</v>
+      </c>
       <c r="B6" s="98" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
+        <v>260</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" s="99" t="s">
+        <v>330</v>
+      </c>
       <c r="H6" s="99"/>
-    </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1">
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+    </row>
+    <row r="7" spans="1:10" s="119" customFormat="1" ht="29">
+      <c r="A7" s="31"/>
       <c r="B7" s="98" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="99"/>
+        <v>233</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99" t="s">
+        <v>261</v>
+      </c>
       <c r="G7" s="99"/>
       <c r="H7" s="99"/>
-    </row>
-    <row r="8" spans="2:8" ht="43.5">
+      <c r="I7" s="99"/>
+      <c r="J7" s="99" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.5">
+      <c r="A8" s="31" t="s">
+        <v>406</v>
+      </c>
       <c r="B8" s="98" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>285</v>
+        <v>427</v>
       </c>
       <c r="D8" s="99" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>431</v>
+      </c>
+      <c r="G8" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="H8" s="99" t="s">
+        <v>432</v>
+      </c>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+    </row>
+    <row r="9" spans="1:10" s="119" customFormat="1" ht="43.5">
+      <c r="A9" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>405</v>
+      </c>
+      <c r="H9" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" s="99" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="119" customFormat="1" ht="87">
+      <c r="A10" s="31"/>
+      <c r="B10" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="I10" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" s="99" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="119" customFormat="1" ht="43.5">
+      <c r="A11" s="31"/>
+      <c r="B11" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="99" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29">
+      <c r="A12" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>417</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="99" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="31" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="99" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>367</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.5">
+      <c r="A14" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>373</v>
+      </c>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.5">
+      <c r="A15" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="98" t="s">
         <v>374</v>
       </c>
-      <c r="E8" s="99" t="s">
-        <v>364</v>
-      </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-    </row>
-    <row r="9" spans="2:8" ht="87">
-      <c r="B9" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="77" t="s">
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>376</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.5">
+      <c r="A16" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="G16" s="99" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+    </row>
+    <row r="17" spans="1:10" s="82" customFormat="1" ht="43.5">
+      <c r="A17" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="29">
+      <c r="B18" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81" t="s">
+        <v>305</v>
+      </c>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29">
+      <c r="B19" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81" t="s">
+        <v>306</v>
+      </c>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="29">
+      <c r="B20" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="F9" s="77" t="s">
-        <v>340</v>
-      </c>
-      <c r="G9" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="87">
-      <c r="B10" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="77" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="29">
-      <c r="B11" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>344</v>
-      </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="43.5">
-      <c r="B12" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="G12" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="29">
-      <c r="B13" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1">
-      <c r="B14" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-    </row>
-    <row r="15" spans="2:8" ht="29">
-      <c r="B15" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>286</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>345</v>
-      </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="29">
-      <c r="B16" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>287</v>
-      </c>
-      <c r="F16" s="81" t="s">
-        <v>346</v>
-      </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="29">
-      <c r="B17" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="81" t="s">
-        <v>288</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>347</v>
-      </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="29">
-      <c r="B18" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1">
-      <c r="B19" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="24" t="s">
+        <v>390</v>
+      </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>392</v>
+      </c>
       <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="B22" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -61496,10 +62222,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
